--- a/data_month/zb/工业/工业主要产品产量/太阳能电池（光伏电池）.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/太阳能电池（光伏电池）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,695 +454,808 @@
           <t>太阳能电池（光伏电池）产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>太阳能电池（光伏电池）产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.3</v>
+        <v>172.14737527173</v>
       </c>
       <c r="C2" t="n">
-        <v>61.00415</v>
+        <v>18.3156</v>
       </c>
       <c r="D2" t="n">
-        <v>453.14106</v>
+        <v>18.3156</v>
       </c>
       <c r="E2" t="n">
-        <v>154.3</v>
+        <v>172.14737527173</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.3156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.6</v>
+        <v>396.6</v>
       </c>
       <c r="C3" t="n">
-        <v>62.99478000000001</v>
+        <v>25.03024</v>
       </c>
       <c r="D3" t="n">
-        <v>516.4932700000001</v>
+        <v>43.34584</v>
       </c>
       <c r="E3" t="n">
-        <v>130.9</v>
+        <v>268.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25.03024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.1</v>
+        <v>129.1</v>
       </c>
       <c r="C4" t="n">
-        <v>71.36225</v>
+        <v>32.88635</v>
       </c>
       <c r="D4" t="n">
-        <v>595.2266</v>
+        <v>84.08983000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>117</v>
+        <v>204.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40.74399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172.14737527173</v>
+        <v>224.7</v>
       </c>
       <c r="C5" t="n">
-        <v>18.3156</v>
+        <v>33.08724</v>
       </c>
       <c r="D5" t="n">
-        <v>18.3156</v>
+        <v>115.48722</v>
       </c>
       <c r="E5" t="n">
-        <v>172.14737527173</v>
+        <v>205.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>31.39738999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>396.6</v>
+        <v>198</v>
       </c>
       <c r="C6" t="n">
-        <v>25.03024</v>
+        <v>35.96691</v>
       </c>
       <c r="D6" t="n">
-        <v>43.34584</v>
+        <v>150.9422</v>
       </c>
       <c r="E6" t="n">
-        <v>268.3</v>
+        <v>208.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>35.45498000000002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.1</v>
+        <v>168.5</v>
       </c>
       <c r="C7" t="n">
-        <v>32.88635</v>
+        <v>43.82004</v>
       </c>
       <c r="D7" t="n">
-        <v>84.08983000000001</v>
+        <v>195.15288</v>
       </c>
       <c r="E7" t="n">
-        <v>204.4</v>
+        <v>199.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>44.21068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.7</v>
+        <v>118.8</v>
       </c>
       <c r="C8" t="n">
-        <v>33.08724</v>
+        <v>40.78211</v>
       </c>
       <c r="D8" t="n">
-        <v>115.48722</v>
+        <v>240.07383</v>
       </c>
       <c r="E8" t="n">
-        <v>205.4</v>
+        <v>182.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>44.92094999999998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>198</v>
+        <v>152.9</v>
       </c>
       <c r="C9" t="n">
-        <v>35.96691</v>
+        <v>49.13225</v>
       </c>
       <c r="D9" t="n">
-        <v>150.9422</v>
+        <v>296.24336</v>
       </c>
       <c r="E9" t="n">
-        <v>208.9</v>
+        <v>200.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>56.16953000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>43.82004</v>
+        <v>86.20868</v>
       </c>
       <c r="D10" t="n">
-        <v>195.15288</v>
+        <v>384.30214</v>
       </c>
       <c r="E10" t="n">
-        <v>199.2</v>
+        <v>162.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>88.05878000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118.8</v>
+        <v>93.3</v>
       </c>
       <c r="C11" t="n">
-        <v>40.78211</v>
+        <v>61.00415</v>
       </c>
       <c r="D11" t="n">
-        <v>240.07383</v>
+        <v>453.14106</v>
       </c>
       <c r="E11" t="n">
-        <v>182.7</v>
+        <v>154.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>68.83891999999997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>152.9</v>
+        <v>38.6</v>
       </c>
       <c r="C12" t="n">
-        <v>49.13225</v>
+        <v>62.99478000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>296.24336</v>
+        <v>516.4932700000001</v>
       </c>
       <c r="E12" t="n">
-        <v>200.4</v>
+        <v>130.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>63.35221000000007</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.59999999999999</v>
+        <v>51.1</v>
       </c>
       <c r="C13" t="n">
-        <v>86.20868</v>
+        <v>71.36225</v>
       </c>
       <c r="D13" t="n">
-        <v>384.30214</v>
+        <v>595.2266</v>
       </c>
       <c r="E13" t="n">
-        <v>162.1</v>
+        <v>117</v>
+      </c>
+      <c r="F13" t="n">
+        <v>78.73332999999991</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.4</v>
+        <v>238.637172683396</v>
       </c>
       <c r="C14" t="n">
-        <v>103.12698</v>
+        <v>62.02343</v>
       </c>
       <c r="D14" t="n">
-        <v>1020.69202</v>
+        <v>62.02343</v>
       </c>
       <c r="E14" t="n">
-        <v>77.09999999999999</v>
+        <v>238.637172683396</v>
+      </c>
+      <c r="F14" t="n">
+        <v>62.02343</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47.4</v>
+        <v>165.1</v>
       </c>
       <c r="C15" t="n">
-        <v>132.74398</v>
+        <v>58.54203</v>
       </c>
       <c r="D15" t="n">
-        <v>1165.51509</v>
+        <v>120.56546</v>
       </c>
       <c r="E15" t="n">
-        <v>74.09999999999999</v>
+        <v>123.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>58.54203</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.9</v>
+        <v>109</v>
       </c>
       <c r="C16" t="n">
-        <v>132.87449</v>
+        <v>76.54697</v>
       </c>
       <c r="D16" t="n">
-        <v>1298.38775</v>
+        <v>203.53521</v>
       </c>
       <c r="E16" t="n">
-        <v>68.40000000000001</v>
+        <v>121.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.96975</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>238.637172683396</v>
+        <v>104.5</v>
       </c>
       <c r="C17" t="n">
-        <v>62.02343</v>
+        <v>77.81066</v>
       </c>
       <c r="D17" t="n">
-        <v>62.02343</v>
+        <v>280.89822</v>
       </c>
       <c r="E17" t="n">
-        <v>238.637172683396</v>
+        <v>116.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>77.36300999999997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.1</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>58.54203</v>
+        <v>77.55597</v>
       </c>
       <c r="D18" t="n">
-        <v>120.56546</v>
+        <v>361.0943</v>
       </c>
       <c r="E18" t="n">
-        <v>123.8</v>
+        <v>110.7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>80.19607999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C19" t="n">
-        <v>76.54697</v>
+        <v>103.86278</v>
       </c>
       <c r="D19" t="n">
-        <v>203.53521</v>
+        <v>509.16069</v>
       </c>
       <c r="E19" t="n">
-        <v>121.7</v>
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>148.06639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.5</v>
+        <v>66.5</v>
       </c>
       <c r="C20" t="n">
-        <v>77.81066</v>
+        <v>97.00823000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>280.89822</v>
+        <v>605.7814400000001</v>
       </c>
       <c r="E20" t="n">
-        <v>116.6</v>
+        <v>88.90000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>96.6207500000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.90000000000001</v>
+        <v>121</v>
       </c>
       <c r="C21" t="n">
-        <v>77.55597</v>
+        <v>147.88584</v>
       </c>
       <c r="D21" t="n">
-        <v>361.0943</v>
+        <v>761.17356</v>
       </c>
       <c r="E21" t="n">
-        <v>110.7</v>
+        <v>96.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>155.3921199999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82</v>
+        <v>54.1</v>
       </c>
       <c r="C22" t="n">
-        <v>103.86278</v>
+        <v>156.29198</v>
       </c>
       <c r="D22" t="n">
-        <v>509.16069</v>
+        <v>917.46545</v>
       </c>
       <c r="E22" t="n">
-        <v>96.40000000000001</v>
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>156.2918900000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.5</v>
+        <v>31.4</v>
       </c>
       <c r="C23" t="n">
-        <v>97.00823000000001</v>
+        <v>103.12698</v>
       </c>
       <c r="D23" t="n">
-        <v>605.7814400000001</v>
+        <v>1020.69202</v>
       </c>
       <c r="E23" t="n">
-        <v>88.90000000000001</v>
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>103.2265699999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>121</v>
+        <v>47.4</v>
       </c>
       <c r="C24" t="n">
-        <v>147.88584</v>
+        <v>132.74398</v>
       </c>
       <c r="D24" t="n">
-        <v>761.17356</v>
+        <v>1165.51509</v>
       </c>
       <c r="E24" t="n">
-        <v>96.3</v>
+        <v>74.09999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>144.8230700000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.1</v>
+        <v>39.9</v>
       </c>
       <c r="C25" t="n">
-        <v>156.29198</v>
+        <v>132.87449</v>
       </c>
       <c r="D25" t="n">
-        <v>917.46545</v>
+        <v>1298.38775</v>
       </c>
       <c r="E25" t="n">
-        <v>87.59999999999999</v>
+        <v>68.40000000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>132.87266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23.8</v>
+        <v>93.64451466163671</v>
       </c>
       <c r="C26" t="n">
-        <v>177.84366</v>
+        <v>120.10497</v>
       </c>
       <c r="D26" t="n">
-        <v>1586.09483</v>
+        <v>120.10497</v>
       </c>
       <c r="E26" t="n">
-        <v>21.4</v>
+        <v>93.64451466163671</v>
+      </c>
+      <c r="F26" t="n">
+        <v>120.10497</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-4</v>
+        <v>50</v>
       </c>
       <c r="C27" t="n">
-        <v>192.14766</v>
+        <v>159.50123</v>
       </c>
       <c r="D27" t="n">
-        <v>1787.85247</v>
+        <v>279.6062</v>
       </c>
       <c r="E27" t="n">
-        <v>14.1</v>
+        <v>33.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>159.50123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.59999999999999</v>
+        <v>22.7</v>
       </c>
       <c r="C28" t="n">
-        <v>254.32724</v>
+        <v>156.64239</v>
       </c>
       <c r="D28" t="n">
-        <v>2050.43597</v>
+        <v>430.01631</v>
       </c>
       <c r="E28" t="n">
-        <v>19.9</v>
+        <v>25.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>150.41011</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.64451466163671</v>
+        <v>16.2</v>
       </c>
       <c r="C29" t="n">
-        <v>120.10497</v>
+        <v>168.24925</v>
       </c>
       <c r="D29" t="n">
-        <v>120.10497</v>
+        <v>604.69175</v>
       </c>
       <c r="E29" t="n">
-        <v>93.64451466163671</v>
+        <v>26.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>174.67544</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50</v>
+        <v>32.5</v>
       </c>
       <c r="C30" t="n">
-        <v>159.50123</v>
+        <v>174.40558</v>
       </c>
       <c r="D30" t="n">
-        <v>279.6062</v>
+        <v>767.54894</v>
       </c>
       <c r="E30" t="n">
-        <v>33.2</v>
+        <v>43.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>162.8571900000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.7</v>
+        <v>22</v>
       </c>
       <c r="C31" t="n">
-        <v>156.64239</v>
+        <v>159.81295</v>
       </c>
       <c r="D31" t="n">
-        <v>430.01631</v>
+        <v>929.6745900000001</v>
       </c>
       <c r="E31" t="n">
-        <v>25.3</v>
+        <v>38.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>162.1256500000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>168.24925</v>
+        <v>126.50752</v>
       </c>
       <c r="D32" t="n">
-        <v>604.69175</v>
+        <v>1056.1999</v>
       </c>
       <c r="E32" t="n">
-        <v>26.3</v>
+        <v>33.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>126.52531</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.5</v>
+        <v>-33.8</v>
       </c>
       <c r="C33" t="n">
-        <v>174.40558</v>
+        <v>121.06091</v>
       </c>
       <c r="D33" t="n">
-        <v>767.54894</v>
+        <v>1174.60195</v>
       </c>
       <c r="E33" t="n">
-        <v>43.2</v>
+        <v>18.9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>118.4020499999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>159.81295</v>
+        <v>151.71483</v>
       </c>
       <c r="D34" t="n">
-        <v>929.6745900000001</v>
+        <v>1390.17787</v>
       </c>
       <c r="E34" t="n">
-        <v>38.6</v>
+        <v>18.9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>215.57592</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="C35" t="n">
-        <v>126.50752</v>
+        <v>177.84366</v>
       </c>
       <c r="D35" t="n">
-        <v>1056.1999</v>
+        <v>1586.09483</v>
       </c>
       <c r="E35" t="n">
-        <v>33.3</v>
+        <v>21.4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>195.91696</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-33.8</v>
+        <v>-4</v>
       </c>
       <c r="C36" t="n">
-        <v>121.06091</v>
+        <v>192.14766</v>
       </c>
       <c r="D36" t="n">
-        <v>1174.60195</v>
+        <v>1787.85247</v>
       </c>
       <c r="E36" t="n">
-        <v>18.9</v>
+        <v>14.1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>201.75764</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-9.800000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>151.71483</v>
+        <v>254.32724</v>
       </c>
       <c r="D37" t="n">
-        <v>1390.17787</v>
+        <v>2050.43597</v>
       </c>
       <c r="E37" t="n">
-        <v>18.9</v>
+        <v>19.9</v>
+      </c>
+      <c r="F37" t="n">
+        <v>262.5835</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1153,1444 +1266,1678 @@
       <c r="E38" t="n">
         <v>47.2</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.04191</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35</v>
+        <v>8.5</v>
       </c>
       <c r="C39" t="n">
-        <v>548.6</v>
+        <v>313.6</v>
       </c>
       <c r="D39" t="n">
-        <v>4714.1</v>
+        <v>672.3</v>
       </c>
       <c r="E39" t="n">
-        <v>24.5</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>672.2580899999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.1</v>
+        <v>41.7</v>
       </c>
       <c r="C40" t="n">
-        <v>586.7</v>
+        <v>434.7</v>
       </c>
       <c r="D40" t="n">
-        <v>5301.2</v>
+        <v>1105</v>
       </c>
       <c r="E40" t="n">
-        <v>23.4</v>
+        <v>23.9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>432.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>23.3</v>
+        <v>22.3</v>
       </c>
       <c r="C41" t="n">
-        <v>593.8</v>
+        <v>404.3</v>
       </c>
       <c r="D41" t="n">
-        <v>5863</v>
+        <v>1504.9</v>
       </c>
       <c r="E41" t="n">
-        <v>22.7</v>
+        <v>20.6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>399.9000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.5</v>
+        <v>31.2</v>
       </c>
       <c r="C42" t="n">
-        <v>313.6</v>
+        <v>408.1</v>
       </c>
       <c r="D42" t="n">
-        <v>672.3</v>
+        <v>1913.1</v>
       </c>
       <c r="E42" t="n">
-        <v>9.300000000000001</v>
+        <v>22.9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408.1999999999998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.7</v>
+        <v>20.2</v>
       </c>
       <c r="C43" t="n">
-        <v>434.7</v>
+        <v>482.4</v>
       </c>
       <c r="D43" t="n">
-        <v>1105</v>
+        <v>2718.5</v>
       </c>
       <c r="E43" t="n">
-        <v>23.9</v>
+        <v>21.7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>805.4000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22.3</v>
+        <v>21.7</v>
       </c>
       <c r="C44" t="n">
-        <v>404.3</v>
+        <v>441.2</v>
       </c>
       <c r="D44" t="n">
-        <v>1504.9</v>
+        <v>3146.8</v>
       </c>
       <c r="E44" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>428.3000000000002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.2</v>
+        <v>27.3</v>
       </c>
       <c r="C45" t="n">
-        <v>408.1</v>
+        <v>464.3</v>
       </c>
       <c r="D45" t="n">
-        <v>1913.1</v>
+        <v>3611.1</v>
       </c>
       <c r="E45" t="n">
-        <v>22.9</v>
+        <v>20.8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>464.2999999999997</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20.2</v>
+        <v>23.8</v>
       </c>
       <c r="C46" t="n">
-        <v>482.4</v>
+        <v>517.6</v>
       </c>
       <c r="D46" t="n">
-        <v>2718.5</v>
+        <v>4165.3</v>
       </c>
       <c r="E46" t="n">
-        <v>21.7</v>
+        <v>22.2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>554.2000000000003</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>21.7</v>
+        <v>35</v>
       </c>
       <c r="C47" t="n">
-        <v>441.2</v>
+        <v>548.6</v>
       </c>
       <c r="D47" t="n">
-        <v>3146.8</v>
+        <v>4714.1</v>
       </c>
       <c r="E47" t="n">
-        <v>20.4</v>
+        <v>24.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>548.8000000000002</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="C48" t="n">
-        <v>464.3</v>
+        <v>586.7</v>
       </c>
       <c r="D48" t="n">
-        <v>3611.1</v>
+        <v>5301.2</v>
       </c>
       <c r="E48" t="n">
-        <v>20.8</v>
+        <v>23.4</v>
+      </c>
+      <c r="F48" t="n">
+        <v>587.0999999999995</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="C49" t="n">
-        <v>517.6</v>
+        <v>593.8</v>
       </c>
       <c r="D49" t="n">
-        <v>4165.3</v>
+        <v>5863</v>
       </c>
       <c r="E49" t="n">
-        <v>22.2</v>
+        <v>22.7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>561.8000000000002</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="C50" t="n">
-        <v>567.9</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>6147.7</v>
+        <v>906.7</v>
       </c>
       <c r="E50" t="n">
-        <v>18</v>
+        <v>16.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>906.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.9</v>
+        <v>24.1</v>
       </c>
       <c r="C51" t="n">
-        <v>653.7</v>
+        <v>649.5</v>
       </c>
       <c r="D51" t="n">
-        <v>6838.1</v>
+        <v>1589.9</v>
       </c>
       <c r="E51" t="n">
-        <v>16.6</v>
+        <v>20.7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>683.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>18</v>
+        <v>17.7</v>
       </c>
       <c r="C52" t="n">
-        <v>800.7</v>
+        <v>587</v>
       </c>
       <c r="D52" t="n">
-        <v>7681</v>
+        <v>2230.6</v>
       </c>
       <c r="E52" t="n">
-        <v>17.8</v>
+        <v>20.3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>640.6999999999998</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>698.1</v>
+      </c>
       <c r="D53" t="n">
-        <v>906.7</v>
+        <v>3161.7</v>
       </c>
       <c r="E53" t="n">
-        <v>16.5</v>
+        <v>27.1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>931.0999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>24.1</v>
+        <v>37.5</v>
       </c>
       <c r="C54" t="n">
-        <v>649.5</v>
+        <v>754.1</v>
       </c>
       <c r="D54" t="n">
-        <v>1589.9</v>
+        <v>3890.6</v>
       </c>
       <c r="E54" t="n">
-        <v>20.7</v>
+        <v>28</v>
+      </c>
+      <c r="F54" t="n">
+        <v>728.9000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>17.7</v>
+        <v>14.7</v>
       </c>
       <c r="C55" t="n">
-        <v>587</v>
+        <v>570.1</v>
       </c>
       <c r="D55" t="n">
-        <v>2230.6</v>
+        <v>4470.5</v>
       </c>
       <c r="E55" t="n">
-        <v>20.3</v>
+        <v>26.4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>579.9000000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>28.4</v>
+        <v>11.2</v>
       </c>
       <c r="C56" t="n">
-        <v>698.1</v>
+        <v>569.6</v>
       </c>
       <c r="D56" t="n">
-        <v>3161.7</v>
+        <v>5043.6</v>
       </c>
       <c r="E56" t="n">
-        <v>27.1</v>
+        <v>25.2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>573.1000000000004</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>37.5</v>
+        <v>-7.6</v>
       </c>
       <c r="C57" t="n">
-        <v>754.1</v>
+        <v>544.4</v>
       </c>
       <c r="D57" t="n">
-        <v>3890.6</v>
+        <v>5580.6</v>
       </c>
       <c r="E57" t="n">
-        <v>28</v>
+        <v>20.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>537</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>14.7</v>
+        <v>-4.4</v>
       </c>
       <c r="C58" t="n">
-        <v>570.1</v>
+        <v>567.9</v>
       </c>
       <c r="D58" t="n">
-        <v>4470.5</v>
+        <v>6147.7</v>
       </c>
       <c r="E58" t="n">
-        <v>26.4</v>
+        <v>18</v>
+      </c>
+      <c r="F58" t="n">
+        <v>567.0999999999995</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>11.2</v>
+        <v>1.9</v>
       </c>
       <c r="C59" t="n">
-        <v>569.6</v>
+        <v>653.7</v>
       </c>
       <c r="D59" t="n">
-        <v>5043.6</v>
+        <v>6838.1</v>
       </c>
       <c r="E59" t="n">
-        <v>25.2</v>
+        <v>16.6</v>
+      </c>
+      <c r="F59" t="n">
+        <v>690.4000000000005</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-7.6</v>
+        <v>18</v>
       </c>
       <c r="C60" t="n">
-        <v>544.4</v>
+        <v>800.7</v>
       </c>
       <c r="D60" t="n">
-        <v>5580.6</v>
+        <v>7681</v>
       </c>
       <c r="E60" t="n">
-        <v>20.8</v>
+        <v>17.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>842.8999999999996</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C61" t="n">
-        <v>776.9</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>8197.700000000001</v>
+        <v>1150.9</v>
       </c>
       <c r="E61" t="n">
-        <v>25.3</v>
+        <v>14.6</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1150.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>28.6</v>
+        <v>25.1</v>
       </c>
       <c r="C62" t="n">
-        <v>871.6</v>
+        <v>855.5</v>
       </c>
       <c r="D62" t="n">
-        <v>8523.200000000001</v>
+        <v>2010</v>
       </c>
       <c r="E62" t="n">
-        <v>27.5</v>
+        <v>18.8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>859.0999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>23.2</v>
+        <v>29.9</v>
       </c>
       <c r="C63" t="n">
-        <v>931.7</v>
+        <v>832.5</v>
       </c>
       <c r="D63" t="n">
-        <v>9453.9</v>
+        <v>2882.6</v>
       </c>
       <c r="E63" t="n">
-        <v>30.6</v>
+        <v>18.2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>872.5999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>836.8</v>
+      </c>
       <c r="D64" t="n">
-        <v>1150.9</v>
+        <v>3745</v>
       </c>
       <c r="E64" t="n">
-        <v>14.6</v>
+        <v>20.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>862.4000000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="C65" t="n">
-        <v>855.5</v>
+        <v>987.1</v>
       </c>
       <c r="D65" t="n">
-        <v>2010</v>
+        <v>4925.6</v>
       </c>
       <c r="E65" t="n">
-        <v>18.8</v>
+        <v>21.6</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1180.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>29.9</v>
+        <v>31.5</v>
       </c>
       <c r="C66" t="n">
-        <v>832.5</v>
+        <v>771.2</v>
       </c>
       <c r="D66" t="n">
-        <v>2882.6</v>
+        <v>5749.8</v>
       </c>
       <c r="E66" t="n">
-        <v>18.2</v>
+        <v>23.7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>824.1999999999998</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>20.6</v>
+        <v>32.4</v>
       </c>
       <c r="C67" t="n">
-        <v>836.8</v>
+        <v>812.4</v>
       </c>
       <c r="D67" t="n">
-        <v>3745</v>
+        <v>6520.4</v>
       </c>
       <c r="E67" t="n">
-        <v>20.1</v>
+        <v>21.5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>770.5999999999995</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>24.9</v>
+        <v>55.7</v>
       </c>
       <c r="C68" t="n">
-        <v>987.1</v>
+        <v>907.2</v>
       </c>
       <c r="D68" t="n">
-        <v>4925.6</v>
+        <v>7422</v>
       </c>
       <c r="E68" t="n">
-        <v>21.6</v>
+        <v>24.6</v>
+      </c>
+      <c r="F68" t="n">
+        <v>901.6000000000004</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>31.5</v>
+        <v>26.3</v>
       </c>
       <c r="C69" t="n">
-        <v>771.2</v>
+        <v>776.9</v>
       </c>
       <c r="D69" t="n">
-        <v>5749.8</v>
+        <v>8197.700000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>23.7</v>
+        <v>25.3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>775.7000000000007</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>32.4</v>
+        <v>28.6</v>
       </c>
       <c r="C70" t="n">
-        <v>812.4</v>
+        <v>871.6</v>
       </c>
       <c r="D70" t="n">
-        <v>6520.4</v>
+        <v>8523.200000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>21.5</v>
+        <v>27.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>325.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>55.7</v>
+        <v>23.2</v>
       </c>
       <c r="C71" t="n">
-        <v>907.2</v>
+        <v>931.7</v>
       </c>
       <c r="D71" t="n">
-        <v>7422</v>
+        <v>9453.9</v>
       </c>
       <c r="E71" t="n">
-        <v>24.6</v>
+        <v>30.6</v>
+      </c>
+      <c r="F71" t="n">
+        <v>930.6999999999989</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C72" t="n">
-        <v>831.4</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>7700.1</v>
+        <v>1223.4</v>
       </c>
       <c r="E72" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1223.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>16.4</v>
+        <v>12.8</v>
       </c>
       <c r="C73" t="n">
-        <v>949.7</v>
+        <v>816.7</v>
       </c>
       <c r="D73" t="n">
-        <v>8591.9</v>
+        <v>2064.7</v>
       </c>
       <c r="E73" t="n">
-        <v>7.6</v>
+        <v>13.3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>841.2999999999997</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>13.1</v>
+        <v>11.1</v>
       </c>
       <c r="C74" t="n">
-        <v>1042.4</v>
+        <v>830.1</v>
       </c>
       <c r="D74" t="n">
-        <v>9605.299999999999</v>
+        <v>2816.6</v>
       </c>
       <c r="E74" t="n">
-        <v>7.7</v>
+        <v>11.1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>751.9000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>929</v>
+      </c>
       <c r="D75" t="n">
-        <v>1223.4</v>
+        <v>3762.8</v>
       </c>
       <c r="E75" t="n">
-        <v>8.1</v>
+        <v>13.7</v>
+      </c>
+      <c r="F75" t="n">
+        <v>946.2000000000003</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>12.8</v>
+        <v>-5.5</v>
       </c>
       <c r="C76" t="n">
-        <v>816.7</v>
+        <v>847.2</v>
       </c>
       <c r="D76" t="n">
-        <v>2064.7</v>
+        <v>4626.6</v>
       </c>
       <c r="E76" t="n">
-        <v>13.3</v>
+        <v>8.6</v>
+      </c>
+      <c r="F76" t="n">
+        <v>863.8000000000002</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="C77" t="n">
-        <v>830.1</v>
+        <v>741.2</v>
       </c>
       <c r="D77" t="n">
-        <v>2816.6</v>
+        <v>5387.6</v>
       </c>
       <c r="E77" t="n">
-        <v>11.1</v>
+        <v>7.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>761</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>23.3</v>
+        <v>-0.6</v>
       </c>
       <c r="C78" t="n">
-        <v>929</v>
+        <v>726.4</v>
       </c>
       <c r="D78" t="n">
-        <v>3762.8</v>
+        <v>6039</v>
       </c>
       <c r="E78" t="n">
-        <v>13.7</v>
+        <v>7.3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>651.3999999999996</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-5.5</v>
+        <v>4.4</v>
       </c>
       <c r="C79" t="n">
-        <v>847.2</v>
+        <v>816.2</v>
       </c>
       <c r="D79" t="n">
-        <v>4626.6</v>
+        <v>6873.2</v>
       </c>
       <c r="E79" t="n">
-        <v>8.6</v>
+        <v>6.7</v>
+      </c>
+      <c r="F79" t="n">
+        <v>834.1999999999998</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>19.4</v>
       </c>
       <c r="C80" t="n">
-        <v>741.2</v>
+        <v>831.4</v>
       </c>
       <c r="D80" t="n">
-        <v>5387.6</v>
+        <v>7700.1</v>
       </c>
       <c r="E80" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>826.9000000000005</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.6</v>
+        <v>16.4</v>
       </c>
       <c r="C81" t="n">
-        <v>726.4</v>
+        <v>949.7</v>
       </c>
       <c r="D81" t="n">
-        <v>6039</v>
+        <v>8591.9</v>
       </c>
       <c r="E81" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
+      </c>
+      <c r="F81" t="n">
+        <v>891.7999999999993</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4.4</v>
+        <v>13.1</v>
       </c>
       <c r="C82" t="n">
-        <v>816.2</v>
+        <v>1042.4</v>
       </c>
       <c r="D82" t="n">
-        <v>6873.2</v>
+        <v>9605.299999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1013.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1117.3</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>10228.2</v>
+        <v>1341.8</v>
       </c>
       <c r="E83" t="n">
-        <v>26.9</v>
+        <v>13.5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1341.8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>23</v>
+        <v>25.6</v>
       </c>
       <c r="C84" t="n">
-        <v>1275.9</v>
+        <v>996.3</v>
       </c>
       <c r="D84" t="n">
-        <v>11633.1</v>
+        <v>2384.2</v>
       </c>
       <c r="E84" t="n">
-        <v>28.2</v>
+        <v>18.2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1042.4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>17.2</v>
+        <v>3.6</v>
       </c>
       <c r="C85" t="n">
-        <v>1330.5</v>
+        <v>849.8</v>
       </c>
       <c r="D85" t="n">
-        <v>12862.1</v>
+        <v>3266.1</v>
       </c>
       <c r="E85" t="n">
-        <v>26.8</v>
+        <v>17.1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>881.9000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1025.1</v>
+      </c>
       <c r="D86" t="n">
-        <v>1341.8</v>
+        <v>4333.2</v>
       </c>
       <c r="E86" t="n">
-        <v>13.5</v>
+        <v>16.4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1067.1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>25.6</v>
+        <v>27</v>
       </c>
       <c r="C87" t="n">
-        <v>996.3</v>
+        <v>1113.5</v>
       </c>
       <c r="D87" t="n">
-        <v>2384.2</v>
+        <v>5726.6</v>
       </c>
       <c r="E87" t="n">
-        <v>18.2</v>
+        <v>20.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1393.400000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3.6</v>
+        <v>34.3</v>
       </c>
       <c r="C88" t="n">
-        <v>849.8</v>
+        <v>997.2</v>
       </c>
       <c r="D88" t="n">
-        <v>3266.1</v>
+        <v>6623.3</v>
       </c>
       <c r="E88" t="n">
-        <v>17.1</v>
+        <v>22</v>
+      </c>
+      <c r="F88" t="n">
+        <v>896.6999999999998</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>9.9</v>
+        <v>42.1</v>
       </c>
       <c r="C89" t="n">
-        <v>1025.1</v>
+        <v>1123.8</v>
       </c>
       <c r="D89" t="n">
-        <v>4333.2</v>
+        <v>8114.7</v>
       </c>
       <c r="E89" t="n">
-        <v>16.4</v>
+        <v>25</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1491.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>27</v>
+        <v>31.3</v>
       </c>
       <c r="C90" t="n">
-        <v>1113.5</v>
+        <v>1178.3</v>
       </c>
       <c r="D90" t="n">
-        <v>5726.6</v>
+        <v>9291.299999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>20.1</v>
+        <v>25.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1176.599999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>34.3</v>
+        <v>28.4</v>
       </c>
       <c r="C91" t="n">
-        <v>997.2</v>
+        <v>1117.3</v>
       </c>
       <c r="D91" t="n">
-        <v>6623.3</v>
+        <v>10228.2</v>
       </c>
       <c r="E91" t="n">
-        <v>22</v>
+        <v>26.9</v>
+      </c>
+      <c r="F91" t="n">
+        <v>936.9000000000015</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>42.1</v>
+        <v>23</v>
       </c>
       <c r="C92" t="n">
-        <v>1123.8</v>
+        <v>1275.9</v>
       </c>
       <c r="D92" t="n">
-        <v>8114.7</v>
+        <v>11633.1</v>
       </c>
       <c r="E92" t="n">
-        <v>25</v>
+        <v>28.2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1404.9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>31.3</v>
+        <v>17.2</v>
       </c>
       <c r="C93" t="n">
-        <v>1178.3</v>
+        <v>1330.5</v>
       </c>
       <c r="D93" t="n">
-        <v>9291.299999999999</v>
+        <v>12862.1</v>
       </c>
       <c r="E93" t="n">
-        <v>25.1</v>
+        <v>26.8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1229</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1518.2</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>11992.1</v>
+        <v>1465.8</v>
       </c>
       <c r="E94" t="n">
-        <v>25.1</v>
+        <v>-6.4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1465.8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>34.9</v>
+        <v>13.8</v>
       </c>
       <c r="C95" t="n">
-        <v>1679.9</v>
+        <v>1287.1</v>
       </c>
       <c r="D95" t="n">
-        <v>13690.5</v>
+        <v>2745.7</v>
       </c>
       <c r="E95" t="n">
-        <v>24.8</v>
+        <v>3.4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1279.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>62.8</v>
+        <v>23.2</v>
       </c>
       <c r="C96" t="n">
-        <v>2039.2</v>
+        <v>1180.6</v>
       </c>
       <c r="D96" t="n">
-        <v>15728.6</v>
+        <v>3878.1</v>
       </c>
       <c r="E96" t="n">
-        <v>30.3</v>
+        <v>7</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1132.4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2039.1</v>
+      </c>
       <c r="D97" t="n">
-        <v>1465.8</v>
+        <v>8538.5</v>
       </c>
       <c r="E97" t="n">
-        <v>-6.4</v>
+        <v>7.4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4660.4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>13.8</v>
+        <v>26.5</v>
       </c>
       <c r="C98" t="n">
-        <v>1287.1</v>
+        <v>1464.2</v>
       </c>
       <c r="D98" t="n">
-        <v>2745.7</v>
+        <v>6743.5</v>
       </c>
       <c r="E98" t="n">
-        <v>3.4</v>
+        <v>15.6</v>
+      </c>
+      <c r="F98" t="n">
+        <v>6743.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>23.2</v>
+        <v>31.8</v>
       </c>
       <c r="C99" t="n">
-        <v>1180.6</v>
+        <v>1374.8</v>
       </c>
       <c r="D99" t="n">
-        <v>3878.1</v>
+        <v>8095.5</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>17.4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1352</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>9.4</v>
+        <v>23.8</v>
       </c>
       <c r="C100" t="n">
-        <v>2039.1</v>
+        <v>1408.9</v>
       </c>
       <c r="D100" t="n">
-        <v>8538.5</v>
+        <v>9636.9</v>
       </c>
       <c r="E100" t="n">
-        <v>7.4</v>
+        <v>20.3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1541.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>26.5</v>
+        <v>33.3</v>
       </c>
       <c r="C101" t="n">
-        <v>1464.2</v>
+        <v>1640.4</v>
       </c>
       <c r="D101" t="n">
-        <v>6743.5</v>
+        <v>11381.8</v>
       </c>
       <c r="E101" t="n">
-        <v>15.6</v>
+        <v>24.6</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1744.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>31.8</v>
+        <v>40.1</v>
       </c>
       <c r="C102" t="n">
-        <v>1374.8</v>
+        <v>1518.2</v>
       </c>
       <c r="D102" t="n">
-        <v>8095.5</v>
+        <v>11992.1</v>
       </c>
       <c r="E102" t="n">
-        <v>17.4</v>
+        <v>25.1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>610.3000000000011</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>23.8</v>
+        <v>34.9</v>
       </c>
       <c r="C103" t="n">
-        <v>1408.9</v>
+        <v>1679.9</v>
       </c>
       <c r="D103" t="n">
-        <v>9636.9</v>
+        <v>13690.5</v>
       </c>
       <c r="E103" t="n">
-        <v>20.3</v>
+        <v>24.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1698.4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>33.3</v>
+        <v>62.8</v>
       </c>
       <c r="C104" t="n">
-        <v>1640.4</v>
+        <v>2039.2</v>
       </c>
       <c r="D104" t="n">
-        <v>11381.8</v>
+        <v>15728.6</v>
       </c>
       <c r="E104" t="n">
-        <v>24.6</v>
+        <v>30.3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2038.1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1825.6</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>18947.5</v>
+        <v>2774.8</v>
       </c>
       <c r="E105" t="n">
-        <v>50.9</v>
+        <v>103.6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2774.8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>15.4</v>
+        <v>52.4</v>
       </c>
       <c r="C106" t="n">
-        <v>2065.8</v>
+        <v>1833.6</v>
       </c>
       <c r="D106" t="n">
-        <v>21113.5</v>
+        <v>4660.2</v>
       </c>
       <c r="E106" t="n">
-        <v>47.6</v>
+        <v>78.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1885.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4.6</v>
+        <v>45.6</v>
       </c>
       <c r="C107" t="n">
-        <v>2268.5</v>
+        <v>1619.9</v>
       </c>
       <c r="D107" t="n">
-        <v>23405.4</v>
+        <v>6096.6</v>
       </c>
       <c r="E107" t="n">
-        <v>42.1</v>
+        <v>65.3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1436.400000000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1771.7</v>
+      </c>
       <c r="D108" t="n">
-        <v>2774.8</v>
+        <v>7964.5</v>
       </c>
       <c r="E108" t="n">
-        <v>103.6</v>
+        <v>58.7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1867.9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>52.4</v>
+        <v>27.3</v>
       </c>
       <c r="C109" t="n">
-        <v>1833.6</v>
+        <v>1741.1</v>
       </c>
       <c r="D109" t="n">
-        <v>4660.2</v>
+        <v>9746.4</v>
       </c>
       <c r="E109" t="n">
-        <v>78.2</v>
+        <v>52.6</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1781.9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>45.6</v>
+        <v>30.3</v>
       </c>
       <c r="C110" t="n">
-        <v>1619.9</v>
+        <v>1752.6</v>
       </c>
       <c r="D110" t="n">
-        <v>6096.6</v>
+        <v>11665.4</v>
       </c>
       <c r="E110" t="n">
-        <v>65.3</v>
+        <v>50.6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1919</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>36.4</v>
+        <v>41</v>
       </c>
       <c r="C111" t="n">
-        <v>1771.7</v>
+        <v>1919.8</v>
       </c>
       <c r="D111" t="n">
-        <v>7964.5</v>
+        <v>13491.5</v>
       </c>
       <c r="E111" t="n">
-        <v>58.7</v>
+        <v>48.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1826.1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>27.3</v>
+        <v>37.8</v>
       </c>
       <c r="C112" t="n">
-        <v>1741.1</v>
+        <v>2120.4</v>
       </c>
       <c r="D112" t="n">
-        <v>9746.4</v>
+        <v>16532.7</v>
       </c>
       <c r="E112" t="n">
-        <v>52.6</v>
+        <v>51.8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3041.200000000001</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>30.3</v>
+        <v>12.3</v>
       </c>
       <c r="C113" t="n">
-        <v>1752.6</v>
+        <v>1825.6</v>
       </c>
       <c r="D113" t="n">
-        <v>11665.4</v>
+        <v>18947.5</v>
       </c>
       <c r="E113" t="n">
-        <v>50.6</v>
+        <v>50.9</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2414.799999999999</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>41</v>
+        <v>15.4</v>
       </c>
       <c r="C114" t="n">
-        <v>1919.8</v>
+        <v>2065.8</v>
       </c>
       <c r="D114" t="n">
-        <v>13491.5</v>
+        <v>21113.5</v>
       </c>
       <c r="E114" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2166</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>37.8</v>
+        <v>4.6</v>
       </c>
       <c r="C115" t="n">
-        <v>2120.4</v>
+        <v>2268.5</v>
       </c>
       <c r="D115" t="n">
-        <v>16532.7</v>
+        <v>23405.4</v>
       </c>
       <c r="E115" t="n">
-        <v>51.8</v>
+        <v>42.1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2291.900000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/工业主要产品产量/太阳能电池（光伏电池）.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/太阳能电池（光伏电池）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,802 +454,689 @@
           <t>太阳能电池（光伏电池）产量_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>太阳能电池（光伏电池）产量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>172.14737527173</v>
+        <v>93.3</v>
       </c>
       <c r="C2" t="n">
-        <v>18.3156</v>
+        <v>61.00415</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3156</v>
+        <v>453.14106</v>
       </c>
       <c r="E2" t="n">
-        <v>172.14737527173</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.3156</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>396.6</v>
+        <v>38.6</v>
       </c>
       <c r="C3" t="n">
-        <v>25.03024</v>
+        <v>62.99478000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>43.34584</v>
+        <v>516.4932700000001</v>
       </c>
       <c r="E3" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25.03024</v>
+        <v>130.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.1</v>
+        <v>51.1</v>
       </c>
       <c r="C4" t="n">
-        <v>32.88635</v>
+        <v>71.36225</v>
       </c>
       <c r="D4" t="n">
-        <v>84.08983000000001</v>
+        <v>595.2266</v>
       </c>
       <c r="E4" t="n">
-        <v>204.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40.74399</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.7</v>
+        <v>172.14737527173</v>
       </c>
       <c r="C5" t="n">
-        <v>33.08724</v>
+        <v>18.3156</v>
       </c>
       <c r="D5" t="n">
-        <v>115.48722</v>
+        <v>18.3156</v>
       </c>
       <c r="E5" t="n">
-        <v>205.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>31.39738999999999</v>
+        <v>172.14737527173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198</v>
+        <v>396.6</v>
       </c>
       <c r="C6" t="n">
-        <v>35.96691</v>
+        <v>25.03024</v>
       </c>
       <c r="D6" t="n">
-        <v>150.9422</v>
+        <v>43.34584</v>
       </c>
       <c r="E6" t="n">
-        <v>208.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>35.45498000000002</v>
+        <v>268.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.5</v>
+        <v>129.1</v>
       </c>
       <c r="C7" t="n">
-        <v>43.82004</v>
+        <v>32.88635</v>
       </c>
       <c r="D7" t="n">
-        <v>195.15288</v>
+        <v>84.08983000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>44.21068</v>
+        <v>204.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118.8</v>
+        <v>224.7</v>
       </c>
       <c r="C8" t="n">
-        <v>40.78211</v>
+        <v>33.08724</v>
       </c>
       <c r="D8" t="n">
-        <v>240.07383</v>
+        <v>115.48722</v>
       </c>
       <c r="E8" t="n">
-        <v>182.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>44.92094999999998</v>
+        <v>205.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.9</v>
+        <v>198</v>
       </c>
       <c r="C9" t="n">
-        <v>49.13225</v>
+        <v>35.96691</v>
       </c>
       <c r="D9" t="n">
-        <v>296.24336</v>
+        <v>150.9422</v>
       </c>
       <c r="E9" t="n">
-        <v>200.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>56.16953000000001</v>
+        <v>208.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.59999999999999</v>
+        <v>168.5</v>
       </c>
       <c r="C10" t="n">
-        <v>86.20868</v>
+        <v>43.82004</v>
       </c>
       <c r="D10" t="n">
-        <v>384.30214</v>
+        <v>195.15288</v>
       </c>
       <c r="E10" t="n">
-        <v>162.1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>88.05878000000001</v>
+        <v>199.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.3</v>
+        <v>118.8</v>
       </c>
       <c r="C11" t="n">
-        <v>61.00415</v>
+        <v>40.78211</v>
       </c>
       <c r="D11" t="n">
-        <v>453.14106</v>
+        <v>240.07383</v>
       </c>
       <c r="E11" t="n">
-        <v>154.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>68.83891999999997</v>
+        <v>182.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.6</v>
+        <v>152.9</v>
       </c>
       <c r="C12" t="n">
-        <v>62.99478000000001</v>
+        <v>49.13225</v>
       </c>
       <c r="D12" t="n">
-        <v>516.4932700000001</v>
+        <v>296.24336</v>
       </c>
       <c r="E12" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>63.35221000000007</v>
+        <v>200.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.1</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>71.36225</v>
+        <v>86.20868</v>
       </c>
       <c r="D13" t="n">
-        <v>595.2266</v>
+        <v>384.30214</v>
       </c>
       <c r="E13" t="n">
-        <v>117</v>
-      </c>
-      <c r="F13" t="n">
-        <v>78.73332999999991</v>
+        <v>162.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>238.637172683396</v>
+        <v>31.4</v>
       </c>
       <c r="C14" t="n">
-        <v>62.02343</v>
+        <v>103.12698</v>
       </c>
       <c r="D14" t="n">
-        <v>62.02343</v>
+        <v>1020.69202</v>
       </c>
       <c r="E14" t="n">
-        <v>238.637172683396</v>
-      </c>
-      <c r="F14" t="n">
-        <v>62.02343</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.1</v>
+        <v>47.4</v>
       </c>
       <c r="C15" t="n">
-        <v>58.54203</v>
+        <v>132.74398</v>
       </c>
       <c r="D15" t="n">
-        <v>120.56546</v>
+        <v>1165.51509</v>
       </c>
       <c r="E15" t="n">
-        <v>123.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>58.54203</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109</v>
+        <v>39.9</v>
       </c>
       <c r="C16" t="n">
-        <v>76.54697</v>
+        <v>132.87449</v>
       </c>
       <c r="D16" t="n">
-        <v>203.53521</v>
+        <v>1298.38775</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>82.96975</v>
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>104.5</v>
+        <v>238.637172683396</v>
       </c>
       <c r="C17" t="n">
-        <v>77.81066</v>
+        <v>62.02343</v>
       </c>
       <c r="D17" t="n">
-        <v>280.89822</v>
+        <v>62.02343</v>
       </c>
       <c r="E17" t="n">
-        <v>116.6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>77.36300999999997</v>
+        <v>238.637172683396</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83.90000000000001</v>
+        <v>165.1</v>
       </c>
       <c r="C18" t="n">
-        <v>77.55597</v>
+        <v>58.54203</v>
       </c>
       <c r="D18" t="n">
-        <v>361.0943</v>
+        <v>120.56546</v>
       </c>
       <c r="E18" t="n">
-        <v>110.7</v>
-      </c>
-      <c r="F18" t="n">
-        <v>80.19607999999999</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C19" t="n">
-        <v>103.86278</v>
+        <v>76.54697</v>
       </c>
       <c r="D19" t="n">
-        <v>509.16069</v>
+        <v>203.53521</v>
       </c>
       <c r="E19" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>148.06639</v>
+        <v>121.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>66.5</v>
+        <v>104.5</v>
       </c>
       <c r="C20" t="n">
-        <v>97.00823000000001</v>
+        <v>77.81066</v>
       </c>
       <c r="D20" t="n">
-        <v>605.7814400000001</v>
+        <v>280.89822</v>
       </c>
       <c r="E20" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="F20" t="n">
-        <v>96.6207500000001</v>
+        <v>116.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>121</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>147.88584</v>
+        <v>77.55597</v>
       </c>
       <c r="D21" t="n">
-        <v>761.17356</v>
+        <v>361.0943</v>
       </c>
       <c r="E21" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>155.3921199999999</v>
+        <v>110.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.1</v>
+        <v>82</v>
       </c>
       <c r="C22" t="n">
-        <v>156.29198</v>
+        <v>103.86278</v>
       </c>
       <c r="D22" t="n">
-        <v>917.46545</v>
+        <v>509.16069</v>
       </c>
       <c r="E22" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F22" t="n">
-        <v>156.2918900000001</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.4</v>
+        <v>66.5</v>
       </c>
       <c r="C23" t="n">
-        <v>103.12698</v>
+        <v>97.00823000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>1020.69202</v>
+        <v>605.7814400000001</v>
       </c>
       <c r="E23" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F23" t="n">
-        <v>103.2265699999999</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.4</v>
+        <v>121</v>
       </c>
       <c r="C24" t="n">
-        <v>132.74398</v>
+        <v>147.88584</v>
       </c>
       <c r="D24" t="n">
-        <v>1165.51509</v>
+        <v>761.17356</v>
       </c>
       <c r="E24" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="F24" t="n">
-        <v>144.8230700000001</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.9</v>
+        <v>54.1</v>
       </c>
       <c r="C25" t="n">
-        <v>132.87449</v>
+        <v>156.29198</v>
       </c>
       <c r="D25" t="n">
-        <v>1298.38775</v>
+        <v>917.46545</v>
       </c>
       <c r="E25" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F25" t="n">
-        <v>132.87266</v>
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.64451466163671</v>
+        <v>23.8</v>
       </c>
       <c r="C26" t="n">
-        <v>120.10497</v>
+        <v>177.84366</v>
       </c>
       <c r="D26" t="n">
-        <v>120.10497</v>
+        <v>1586.09483</v>
       </c>
       <c r="E26" t="n">
-        <v>93.64451466163671</v>
-      </c>
-      <c r="F26" t="n">
-        <v>120.10497</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50</v>
+        <v>-4</v>
       </c>
       <c r="C27" t="n">
-        <v>159.50123</v>
+        <v>192.14766</v>
       </c>
       <c r="D27" t="n">
-        <v>279.6062</v>
+        <v>1787.85247</v>
       </c>
       <c r="E27" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>159.50123</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>156.64239</v>
+        <v>254.32724</v>
       </c>
       <c r="D28" t="n">
-        <v>430.01631</v>
+        <v>2050.43597</v>
       </c>
       <c r="E28" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>150.41011</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16.2</v>
+        <v>93.64451466163671</v>
       </c>
       <c r="C29" t="n">
-        <v>168.24925</v>
+        <v>120.10497</v>
       </c>
       <c r="D29" t="n">
-        <v>604.69175</v>
+        <v>120.10497</v>
       </c>
       <c r="E29" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>174.67544</v>
+        <v>93.64451466163671</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.5</v>
+        <v>50</v>
       </c>
       <c r="C30" t="n">
-        <v>174.40558</v>
+        <v>159.50123</v>
       </c>
       <c r="D30" t="n">
-        <v>767.54894</v>
+        <v>279.6062</v>
       </c>
       <c r="E30" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>162.8571900000001</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="C31" t="n">
-        <v>159.81295</v>
+        <v>156.64239</v>
       </c>
       <c r="D31" t="n">
-        <v>929.6745900000001</v>
+        <v>430.01631</v>
       </c>
       <c r="E31" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="F31" t="n">
-        <v>162.1256500000001</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="C32" t="n">
-        <v>126.50752</v>
+        <v>168.24925</v>
       </c>
       <c r="D32" t="n">
-        <v>1056.1999</v>
+        <v>604.69175</v>
       </c>
       <c r="E32" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="F32" t="n">
-        <v>126.52531</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-33.8</v>
+        <v>32.5</v>
       </c>
       <c r="C33" t="n">
-        <v>121.06091</v>
+        <v>174.40558</v>
       </c>
       <c r="D33" t="n">
-        <v>1174.60195</v>
+        <v>767.54894</v>
       </c>
       <c r="E33" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F33" t="n">
-        <v>118.4020499999999</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-9.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="C34" t="n">
-        <v>151.71483</v>
+        <v>159.81295</v>
       </c>
       <c r="D34" t="n">
-        <v>1390.17787</v>
+        <v>929.6745900000001</v>
       </c>
       <c r="E34" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F34" t="n">
-        <v>215.57592</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>177.84366</v>
+        <v>126.50752</v>
       </c>
       <c r="D35" t="n">
-        <v>1586.09483</v>
+        <v>1056.1999</v>
       </c>
       <c r="E35" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>195.91696</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-4</v>
+        <v>-33.8</v>
       </c>
       <c r="C36" t="n">
-        <v>192.14766</v>
+        <v>121.06091</v>
       </c>
       <c r="D36" t="n">
-        <v>1787.85247</v>
+        <v>1174.60195</v>
       </c>
       <c r="E36" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>201.75764</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.59999999999999</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>254.32724</v>
+        <v>151.71483</v>
       </c>
       <c r="D37" t="n">
-        <v>2050.43597</v>
+        <v>1390.17787</v>
       </c>
       <c r="E37" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F37" t="n">
-        <v>262.5835</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="38">
@@ -1266,1678 +1153,1740 @@
       <c r="E38" t="n">
         <v>47.2</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.04191</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8.5</v>
+        <v>35</v>
       </c>
       <c r="C39" t="n">
-        <v>313.6</v>
+        <v>548.6</v>
       </c>
       <c r="D39" t="n">
-        <v>672.3</v>
+        <v>4714.1</v>
       </c>
       <c r="E39" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F39" t="n">
-        <v>672.2580899999999</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.7</v>
+        <v>28.1</v>
       </c>
       <c r="C40" t="n">
-        <v>434.7</v>
+        <v>586.7</v>
       </c>
       <c r="D40" t="n">
-        <v>1105</v>
+        <v>5301.2</v>
       </c>
       <c r="E40" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F40" t="n">
-        <v>432.7</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22.3</v>
+        <v>23.3</v>
       </c>
       <c r="C41" t="n">
-        <v>404.3</v>
+        <v>593.8</v>
       </c>
       <c r="D41" t="n">
-        <v>1504.9</v>
+        <v>5863</v>
       </c>
       <c r="E41" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F41" t="n">
-        <v>399.9000000000001</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.2</v>
+        <v>8.5</v>
       </c>
       <c r="C42" t="n">
-        <v>408.1</v>
+        <v>313.6</v>
       </c>
       <c r="D42" t="n">
-        <v>1913.1</v>
+        <v>672.3</v>
       </c>
       <c r="E42" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F42" t="n">
-        <v>408.1999999999998</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20.2</v>
+        <v>41.7</v>
       </c>
       <c r="C43" t="n">
-        <v>482.4</v>
+        <v>434.7</v>
       </c>
       <c r="D43" t="n">
-        <v>2718.5</v>
+        <v>1105</v>
       </c>
       <c r="E43" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>805.4000000000001</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="C44" t="n">
-        <v>441.2</v>
+        <v>404.3</v>
       </c>
       <c r="D44" t="n">
-        <v>3146.8</v>
+        <v>1504.9</v>
       </c>
       <c r="E44" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F44" t="n">
-        <v>428.3000000000002</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>27.3</v>
+        <v>31.2</v>
       </c>
       <c r="C45" t="n">
-        <v>464.3</v>
+        <v>408.1</v>
       </c>
       <c r="D45" t="n">
-        <v>3611.1</v>
+        <v>1913.1</v>
       </c>
       <c r="E45" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F45" t="n">
-        <v>464.2999999999997</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23.8</v>
+        <v>20.2</v>
       </c>
       <c r="C46" t="n">
-        <v>517.6</v>
+        <v>482.4</v>
       </c>
       <c r="D46" t="n">
-        <v>4165.3</v>
+        <v>2718.5</v>
       </c>
       <c r="E46" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="F46" t="n">
-        <v>554.2000000000003</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>35</v>
+        <v>21.7</v>
       </c>
       <c r="C47" t="n">
-        <v>548.6</v>
+        <v>441.2</v>
       </c>
       <c r="D47" t="n">
-        <v>4714.1</v>
+        <v>3146.8</v>
       </c>
       <c r="E47" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F47" t="n">
-        <v>548.8000000000002</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>28.1</v>
+        <v>27.3</v>
       </c>
       <c r="C48" t="n">
-        <v>586.7</v>
+        <v>464.3</v>
       </c>
       <c r="D48" t="n">
-        <v>5301.2</v>
+        <v>3611.1</v>
       </c>
       <c r="E48" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F48" t="n">
-        <v>587.0999999999995</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="C49" t="n">
-        <v>593.8</v>
+        <v>517.6</v>
       </c>
       <c r="D49" t="n">
-        <v>5863</v>
+        <v>4165.3</v>
       </c>
       <c r="E49" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F49" t="n">
-        <v>561.8000000000002</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>567.9</v>
+      </c>
       <c r="D50" t="n">
-        <v>906.7</v>
+        <v>6147.7</v>
       </c>
       <c r="E50" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>906.7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>24.1</v>
+        <v>1.9</v>
       </c>
       <c r="C51" t="n">
-        <v>649.5</v>
+        <v>653.7</v>
       </c>
       <c r="D51" t="n">
-        <v>1589.9</v>
+        <v>6838.1</v>
       </c>
       <c r="E51" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F51" t="n">
-        <v>683.2</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="C52" t="n">
-        <v>587</v>
+        <v>800.7</v>
       </c>
       <c r="D52" t="n">
-        <v>2230.6</v>
+        <v>7681</v>
       </c>
       <c r="E52" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="F52" t="n">
-        <v>640.6999999999998</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C53" t="n">
-        <v>698.1</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>3161.7</v>
+        <v>906.7</v>
       </c>
       <c r="E53" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>931.0999999999999</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>37.5</v>
+        <v>24.1</v>
       </c>
       <c r="C54" t="n">
-        <v>754.1</v>
+        <v>649.5</v>
       </c>
       <c r="D54" t="n">
-        <v>3890.6</v>
+        <v>1589.9</v>
       </c>
       <c r="E54" t="n">
-        <v>28</v>
-      </c>
-      <c r="F54" t="n">
-        <v>728.9000000000001</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>14.7</v>
+        <v>17.7</v>
       </c>
       <c r="C55" t="n">
-        <v>570.1</v>
+        <v>587</v>
       </c>
       <c r="D55" t="n">
-        <v>4470.5</v>
+        <v>2230.6</v>
       </c>
       <c r="E55" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F55" t="n">
-        <v>579.9000000000001</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11.2</v>
+        <v>28.4</v>
       </c>
       <c r="C56" t="n">
-        <v>569.6</v>
+        <v>698.1</v>
       </c>
       <c r="D56" t="n">
-        <v>5043.6</v>
+        <v>3161.7</v>
       </c>
       <c r="E56" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F56" t="n">
-        <v>573.1000000000004</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-7.6</v>
+        <v>37.5</v>
       </c>
       <c r="C57" t="n">
-        <v>544.4</v>
+        <v>754.1</v>
       </c>
       <c r="D57" t="n">
-        <v>5580.6</v>
+        <v>3890.6</v>
       </c>
       <c r="E57" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>537</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-4.4</v>
+        <v>14.7</v>
       </c>
       <c r="C58" t="n">
-        <v>567.9</v>
+        <v>570.1</v>
       </c>
       <c r="D58" t="n">
-        <v>6147.7</v>
+        <v>4470.5</v>
       </c>
       <c r="E58" t="n">
-        <v>18</v>
-      </c>
-      <c r="F58" t="n">
-        <v>567.0999999999995</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.9</v>
+        <v>11.2</v>
       </c>
       <c r="C59" t="n">
-        <v>653.7</v>
+        <v>569.6</v>
       </c>
       <c r="D59" t="n">
-        <v>6838.1</v>
+        <v>5043.6</v>
       </c>
       <c r="E59" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F59" t="n">
-        <v>690.4000000000005</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>18</v>
+        <v>-7.6</v>
       </c>
       <c r="C60" t="n">
-        <v>800.7</v>
+        <v>544.4</v>
       </c>
       <c r="D60" t="n">
-        <v>7681</v>
+        <v>5580.6</v>
       </c>
       <c r="E60" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>842.8999999999996</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>776.9</v>
+      </c>
       <c r="D61" t="n">
-        <v>1150.9</v>
+        <v>8197.700000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1150.9</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25.1</v>
+        <v>28.6</v>
       </c>
       <c r="C62" t="n">
-        <v>855.5</v>
+        <v>871.6</v>
       </c>
       <c r="D62" t="n">
-        <v>2010</v>
+        <v>8523.200000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F62" t="n">
-        <v>859.0999999999999</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>29.9</v>
+        <v>23.2</v>
       </c>
       <c r="C63" t="n">
-        <v>832.5</v>
+        <v>931.7</v>
       </c>
       <c r="D63" t="n">
-        <v>2882.6</v>
+        <v>9453.9</v>
       </c>
       <c r="E63" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F63" t="n">
-        <v>872.5999999999999</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C64" t="n">
-        <v>836.8</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>3745</v>
+        <v>1150.9</v>
       </c>
       <c r="E64" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>862.4000000000001</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="C65" t="n">
-        <v>987.1</v>
+        <v>855.5</v>
       </c>
       <c r="D65" t="n">
-        <v>4925.6</v>
+        <v>2010</v>
       </c>
       <c r="E65" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1180.6</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>31.5</v>
+        <v>29.9</v>
       </c>
       <c r="C66" t="n">
-        <v>771.2</v>
+        <v>832.5</v>
       </c>
       <c r="D66" t="n">
-        <v>5749.8</v>
+        <v>2882.6</v>
       </c>
       <c r="E66" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F66" t="n">
-        <v>824.1999999999998</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>32.4</v>
+        <v>20.6</v>
       </c>
       <c r="C67" t="n">
-        <v>812.4</v>
+        <v>836.8</v>
       </c>
       <c r="D67" t="n">
-        <v>6520.4</v>
+        <v>3745</v>
       </c>
       <c r="E67" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F67" t="n">
-        <v>770.5999999999995</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>55.7</v>
+        <v>24.9</v>
       </c>
       <c r="C68" t="n">
-        <v>907.2</v>
+        <v>987.1</v>
       </c>
       <c r="D68" t="n">
-        <v>7422</v>
+        <v>4925.6</v>
       </c>
       <c r="E68" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="F68" t="n">
-        <v>901.6000000000004</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>26.3</v>
+        <v>31.5</v>
       </c>
       <c r="C69" t="n">
-        <v>776.9</v>
+        <v>771.2</v>
       </c>
       <c r="D69" t="n">
-        <v>8197.700000000001</v>
+        <v>5749.8</v>
       </c>
       <c r="E69" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F69" t="n">
-        <v>775.7000000000007</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>28.6</v>
+        <v>32.4</v>
       </c>
       <c r="C70" t="n">
-        <v>871.6</v>
+        <v>812.4</v>
       </c>
       <c r="D70" t="n">
-        <v>8523.200000000001</v>
+        <v>6520.4</v>
       </c>
       <c r="E70" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F70" t="n">
-        <v>325.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>23.2</v>
+        <v>55.7</v>
       </c>
       <c r="C71" t="n">
-        <v>931.7</v>
+        <v>907.2</v>
       </c>
       <c r="D71" t="n">
-        <v>9453.9</v>
+        <v>7422</v>
       </c>
       <c r="E71" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F71" t="n">
-        <v>930.6999999999989</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C72" t="n">
+        <v>831.4</v>
+      </c>
       <c r="D72" t="n">
-        <v>1223.4</v>
+        <v>7700.1</v>
       </c>
       <c r="E72" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1223.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>12.8</v>
+        <v>16.4</v>
       </c>
       <c r="C73" t="n">
-        <v>816.7</v>
+        <v>949.7</v>
       </c>
       <c r="D73" t="n">
-        <v>2064.7</v>
+        <v>8591.9</v>
       </c>
       <c r="E73" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F73" t="n">
-        <v>841.2999999999997</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>11.1</v>
+        <v>13.1</v>
       </c>
       <c r="C74" t="n">
-        <v>830.1</v>
+        <v>1042.4</v>
       </c>
       <c r="D74" t="n">
-        <v>2816.6</v>
+        <v>9605.299999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F74" t="n">
-        <v>751.9000000000001</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="C75" t="n">
-        <v>929</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>3762.8</v>
+        <v>1223.4</v>
       </c>
       <c r="E75" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F75" t="n">
-        <v>946.2000000000003</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-5.5</v>
+        <v>12.8</v>
       </c>
       <c r="C76" t="n">
-        <v>847.2</v>
+        <v>816.7</v>
       </c>
       <c r="D76" t="n">
-        <v>4626.6</v>
+        <v>2064.7</v>
       </c>
       <c r="E76" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F76" t="n">
-        <v>863.8000000000002</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="C77" t="n">
-        <v>741.2</v>
+        <v>830.1</v>
       </c>
       <c r="D77" t="n">
-        <v>5387.6</v>
+        <v>2816.6</v>
       </c>
       <c r="E77" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F77" t="n">
-        <v>761</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.6</v>
+        <v>23.3</v>
       </c>
       <c r="C78" t="n">
-        <v>726.4</v>
+        <v>929</v>
       </c>
       <c r="D78" t="n">
-        <v>6039</v>
+        <v>3762.8</v>
       </c>
       <c r="E78" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F78" t="n">
-        <v>651.3999999999996</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4.4</v>
+        <v>-5.5</v>
       </c>
       <c r="C79" t="n">
-        <v>816.2</v>
+        <v>847.2</v>
       </c>
       <c r="D79" t="n">
-        <v>6873.2</v>
+        <v>4626.6</v>
       </c>
       <c r="E79" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F79" t="n">
-        <v>834.1999999999998</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>19.4</v>
+        <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>831.4</v>
+        <v>741.2</v>
       </c>
       <c r="D80" t="n">
-        <v>7700.1</v>
+        <v>5387.6</v>
       </c>
       <c r="E80" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F80" t="n">
-        <v>826.9000000000005</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>16.4</v>
+        <v>-0.6</v>
       </c>
       <c r="C81" t="n">
-        <v>949.7</v>
+        <v>726.4</v>
       </c>
       <c r="D81" t="n">
-        <v>8591.9</v>
+        <v>6039</v>
       </c>
       <c r="E81" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F81" t="n">
-        <v>891.7999999999993</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>13.1</v>
+        <v>4.4</v>
       </c>
       <c r="C82" t="n">
-        <v>1042.4</v>
+        <v>816.2</v>
       </c>
       <c r="D82" t="n">
-        <v>9605.299999999999</v>
+        <v>6873.2</v>
       </c>
       <c r="E82" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1013.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1117.3</v>
+      </c>
       <c r="D83" t="n">
-        <v>1341.8</v>
+        <v>10228.2</v>
       </c>
       <c r="E83" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1341.8</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>25.6</v>
+        <v>23</v>
       </c>
       <c r="C84" t="n">
-        <v>996.3</v>
+        <v>1275.9</v>
       </c>
       <c r="D84" t="n">
-        <v>2384.2</v>
+        <v>11633.1</v>
       </c>
       <c r="E84" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1042.4</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3.6</v>
+        <v>17.2</v>
       </c>
       <c r="C85" t="n">
-        <v>849.8</v>
+        <v>1330.5</v>
       </c>
       <c r="D85" t="n">
-        <v>3266.1</v>
+        <v>12862.1</v>
       </c>
       <c r="E85" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>881.9000000000001</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1025.1</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>4333.2</v>
+        <v>1341.8</v>
       </c>
       <c r="E86" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1067.1</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>27</v>
+        <v>25.6</v>
       </c>
       <c r="C87" t="n">
-        <v>1113.5</v>
+        <v>996.3</v>
       </c>
       <c r="D87" t="n">
-        <v>5726.6</v>
+        <v>2384.2</v>
       </c>
       <c r="E87" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1393.400000000001</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>34.3</v>
+        <v>3.6</v>
       </c>
       <c r="C88" t="n">
-        <v>997.2</v>
+        <v>849.8</v>
       </c>
       <c r="D88" t="n">
-        <v>6623.3</v>
+        <v>3266.1</v>
       </c>
       <c r="E88" t="n">
-        <v>22</v>
-      </c>
-      <c r="F88" t="n">
-        <v>896.6999999999998</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>42.1</v>
+        <v>9.9</v>
       </c>
       <c r="C89" t="n">
-        <v>1123.8</v>
+        <v>1025.1</v>
       </c>
       <c r="D89" t="n">
-        <v>8114.7</v>
+        <v>4333.2</v>
       </c>
       <c r="E89" t="n">
-        <v>25</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1491.4</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>31.3</v>
+        <v>27</v>
       </c>
       <c r="C90" t="n">
-        <v>1178.3</v>
+        <v>1113.5</v>
       </c>
       <c r="D90" t="n">
-        <v>9291.299999999999</v>
+        <v>5726.6</v>
       </c>
       <c r="E90" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1176.599999999999</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>28.4</v>
+        <v>34.3</v>
       </c>
       <c r="C91" t="n">
-        <v>1117.3</v>
+        <v>997.2</v>
       </c>
       <c r="D91" t="n">
-        <v>10228.2</v>
+        <v>6623.3</v>
       </c>
       <c r="E91" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F91" t="n">
-        <v>936.9000000000015</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>23</v>
+        <v>42.1</v>
       </c>
       <c r="C92" t="n">
-        <v>1275.9</v>
+        <v>1123.8</v>
       </c>
       <c r="D92" t="n">
-        <v>11633.1</v>
+        <v>8114.7</v>
       </c>
       <c r="E92" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1404.9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>17.2</v>
+        <v>31.3</v>
       </c>
       <c r="C93" t="n">
-        <v>1330.5</v>
+        <v>1178.3</v>
       </c>
       <c r="D93" t="n">
-        <v>12862.1</v>
+        <v>9291.299999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1229</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1518.2</v>
+      </c>
       <c r="D94" t="n">
-        <v>1465.8</v>
+        <v>11992.1</v>
       </c>
       <c r="E94" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1465.8</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>13.8</v>
+        <v>34.9</v>
       </c>
       <c r="C95" t="n">
-        <v>1287.1</v>
+        <v>1679.9</v>
       </c>
       <c r="D95" t="n">
-        <v>2745.7</v>
+        <v>13690.5</v>
       </c>
       <c r="E95" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1279.9</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>23.2</v>
+        <v>62.8</v>
       </c>
       <c r="C96" t="n">
-        <v>1180.6</v>
+        <v>2039.2</v>
       </c>
       <c r="D96" t="n">
-        <v>3878.1</v>
+        <v>15728.6</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1132.4</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2039.1</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>8538.5</v>
+        <v>1465.8</v>
       </c>
       <c r="E97" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F97" t="n">
-        <v>4660.4</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>26.5</v>
+        <v>13.8</v>
       </c>
       <c r="C98" t="n">
-        <v>1464.2</v>
+        <v>1287.1</v>
       </c>
       <c r="D98" t="n">
-        <v>6743.5</v>
+        <v>2745.7</v>
       </c>
       <c r="E98" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F98" t="n">
-        <v>6743.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>31.8</v>
+        <v>23.2</v>
       </c>
       <c r="C99" t="n">
-        <v>1374.8</v>
+        <v>1180.6</v>
       </c>
       <c r="D99" t="n">
-        <v>8095.5</v>
+        <v>3878.1</v>
       </c>
       <c r="E99" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1352</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>23.8</v>
+        <v>9.4</v>
       </c>
       <c r="C100" t="n">
-        <v>1408.9</v>
+        <v>2039.1</v>
       </c>
       <c r="D100" t="n">
-        <v>9636.9</v>
+        <v>8538.5</v>
       </c>
       <c r="E100" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1541.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>33.3</v>
+        <v>26.5</v>
       </c>
       <c r="C101" t="n">
-        <v>1640.4</v>
+        <v>1464.2</v>
       </c>
       <c r="D101" t="n">
-        <v>11381.8</v>
+        <v>6743.5</v>
       </c>
       <c r="E101" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1744.9</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>40.1</v>
+        <v>31.8</v>
       </c>
       <c r="C102" t="n">
-        <v>1518.2</v>
+        <v>1374.8</v>
       </c>
       <c r="D102" t="n">
-        <v>11992.1</v>
+        <v>8095.5</v>
       </c>
       <c r="E102" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="F102" t="n">
-        <v>610.3000000000011</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>34.9</v>
+        <v>23.8</v>
       </c>
       <c r="C103" t="n">
-        <v>1679.9</v>
+        <v>1408.9</v>
       </c>
       <c r="D103" t="n">
-        <v>13690.5</v>
+        <v>9636.9</v>
       </c>
       <c r="E103" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1698.4</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>62.8</v>
+        <v>33.3</v>
       </c>
       <c r="C104" t="n">
-        <v>2039.2</v>
+        <v>1640.4</v>
       </c>
       <c r="D104" t="n">
-        <v>15728.6</v>
+        <v>11381.8</v>
       </c>
       <c r="E104" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F104" t="n">
-        <v>2038.1</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1825.6</v>
+      </c>
       <c r="D105" t="n">
-        <v>2774.8</v>
+        <v>18947.5</v>
       </c>
       <c r="E105" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2774.8</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>52.4</v>
+        <v>15.4</v>
       </c>
       <c r="C106" t="n">
-        <v>1833.6</v>
+        <v>2065.8</v>
       </c>
       <c r="D106" t="n">
-        <v>4660.2</v>
+        <v>21113.5</v>
       </c>
       <c r="E106" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1885.4</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>45.6</v>
+        <v>4.6</v>
       </c>
       <c r="C107" t="n">
-        <v>1619.9</v>
+        <v>2268.5</v>
       </c>
       <c r="D107" t="n">
-        <v>6096.6</v>
+        <v>23405.4</v>
       </c>
       <c r="E107" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1436.400000000001</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1771.7</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>7964.5</v>
+        <v>2774.8</v>
       </c>
       <c r="E108" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1867.9</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>27.3</v>
+        <v>52.4</v>
       </c>
       <c r="C109" t="n">
-        <v>1741.1</v>
+        <v>1833.6</v>
       </c>
       <c r="D109" t="n">
-        <v>9746.4</v>
+        <v>4660.2</v>
       </c>
       <c r="E109" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1781.9</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>30.3</v>
+        <v>45.6</v>
       </c>
       <c r="C110" t="n">
-        <v>1752.6</v>
+        <v>1619.9</v>
       </c>
       <c r="D110" t="n">
-        <v>11665.4</v>
+        <v>6096.6</v>
       </c>
       <c r="E110" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1919</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>41</v>
+        <v>36.4</v>
       </c>
       <c r="C111" t="n">
-        <v>1919.8</v>
+        <v>1771.7</v>
       </c>
       <c r="D111" t="n">
-        <v>13491.5</v>
+        <v>7964.5</v>
       </c>
       <c r="E111" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1826.1</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>37.8</v>
+        <v>27.3</v>
       </c>
       <c r="C112" t="n">
-        <v>2120.4</v>
+        <v>1741.1</v>
       </c>
       <c r="D112" t="n">
-        <v>16532.7</v>
+        <v>9746.4</v>
       </c>
       <c r="E112" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="F112" t="n">
-        <v>3041.200000000001</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>12.3</v>
+        <v>30.3</v>
       </c>
       <c r="C113" t="n">
-        <v>1825.6</v>
+        <v>1752.6</v>
       </c>
       <c r="D113" t="n">
-        <v>18947.5</v>
+        <v>11665.4</v>
       </c>
       <c r="E113" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2414.799999999999</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>15.4</v>
+        <v>41</v>
       </c>
       <c r="C114" t="n">
-        <v>2065.8</v>
+        <v>1919.8</v>
       </c>
       <c r="D114" t="n">
-        <v>21113.5</v>
+        <v>13491.5</v>
       </c>
       <c r="E114" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2166</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4.6</v>
+        <v>37.8</v>
       </c>
       <c r="C115" t="n">
-        <v>2268.5</v>
+        <v>2120.4</v>
       </c>
       <c r="D115" t="n">
-        <v>23405.4</v>
+        <v>16532.7</v>
       </c>
       <c r="E115" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2291.900000000001</v>
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3100.4</v>
+      </c>
+      <c r="D116" t="n">
+        <v>25383.3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3472.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>30177.7</v>
+      </c>
+      <c r="E117" t="n">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3562</v>
+      </c>
+      <c r="D118" t="n">
+        <v>34364.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="n">
+        <v>3870.7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2211.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5987.1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2144.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>8429.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2534.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11422.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2701.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>14202.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2490.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>16667.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2591.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>19862.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2981.1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>22823</v>
+      </c>
+      <c r="E126" t="n">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>6296.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4319.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>10526.3</v>
+      </c>
+      <c r="E128" t="n">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3992</v>
+      </c>
+      <c r="D129" t="n">
+        <v>14435.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4150</v>
+      </c>
+      <c r="D130" t="n">
+        <v>18516.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4698.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>23241.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>54.5</v>
       </c>
     </row>
   </sheetData>
